--- a/posesiones/1479705.xlsx
+++ b/posesiones/1479705.xlsx
@@ -1853,10 +1853,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2047,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>17</v>
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2341,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R13">
         <v>26</v>
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R14">
         <v>10</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R16">
         <v>8</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2594,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R18">
         <v>17</v>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2694,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2838,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R23">
         <v>16</v>
@@ -2891,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R24">
         <v>16</v>
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R26">
         <v>23</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R28">
         <v>18</v>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3194,7 +3194,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R30">
         <v>21</v>
@@ -3247,7 +3247,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R31">
         <v>13</v>
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R33">
         <v>22</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3447,7 +3447,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R35">
         <v>10</v>
@@ -3497,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3594,7 +3594,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R38">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R39">
         <v>18</v>
@@ -3697,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3841,7 +3841,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R43">
         <v>21</v>
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3941,7 +3941,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R45">
         <v>10</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4035,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4085,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R48">
         <v>14</v>
@@ -4138,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R49">
         <v>21</v>
@@ -4191,7 +4191,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R50">
         <v>14</v>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4291,7 +4291,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R52">
         <v>8</v>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4391,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R54">
         <v>15</v>
@@ -4444,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R56">
         <v>11</v>
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4597,7 +4597,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R58">
         <v>13</v>
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R60">
         <v>12</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4841,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4938,7 +4938,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R65">
         <v>16</v>
@@ -4991,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5041,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R67">
         <v>5</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5185,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5279,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5329,7 +5329,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R73">
         <v>9</v>
@@ -5382,7 +5382,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R74">
         <v>11</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5485,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R76">
         <v>12</v>
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5582,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5629,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R81">
         <v>1</v>
@@ -5779,7 +5779,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R82">
         <v>14</v>
@@ -5832,7 +5832,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R83">
         <v>19</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5932,7 +5932,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R85">
         <v>25</v>
@@ -5985,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6035,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R87">
         <v>11</v>
@@ -6088,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6138,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R89">
         <v>12</v>
@@ -6191,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6241,7 +6241,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R91">
         <v>23</v>
@@ -6291,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6341,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6391,7 +6391,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R94">
         <v>20</v>
@@ -6441,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6488,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6582,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6629,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6676,7 +6676,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6726,7 +6726,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R101">
         <v>15</v>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6829,7 +6829,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R103">
         <v>20</v>
@@ -6879,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6926,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7023,7 +7023,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R107">
         <v>12</v>
@@ -7067,10 +7067,10 @@
         <v>1</v>
       </c>
       <c r="P108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7111,10 +7111,10 @@
         <v>1</v>
       </c>
       <c r="P109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q109">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7164,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R110">
         <v>13</v>
@@ -7214,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7261,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7358,7 +7358,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R114">
         <v>17</v>
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R116">
         <v>8</v>
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7561,7 +7561,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R118">
         <v>8</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7708,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7852,7 +7852,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R124">
         <v>32</v>
@@ -7905,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7955,7 +7955,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R126">
         <v>12</v>
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8149,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8196,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8243,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8290,7 +8290,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8340,7 +8340,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R134">
         <v>24</v>
@@ -8390,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8440,7 +8440,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R136">
         <v>9</v>
@@ -8493,7 +8493,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R137">
         <v>21</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8593,7 +8593,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R139">
         <v>18</v>
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8743,7 +8743,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R142">
         <v>7</v>
@@ -8796,7 +8796,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8846,7 +8846,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R144">
         <v>7</v>
@@ -8896,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8946,7 +8946,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R146">
         <v>2</v>
@@ -8999,7 +8999,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R147">
         <v>19</v>
@@ -9049,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9099,7 +9099,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R149">
         <v>6</v>
@@ -9152,7 +9152,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9202,7 +9202,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R151">
         <v>6</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9299,7 +9299,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R153">
         <v>5</v>
@@ -9349,7 +9349,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R155">
         <v>18</v>
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9499,7 +9499,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9549,7 +9549,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R158">
         <v>11</v>
@@ -9602,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9652,7 +9652,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R160">
         <v>22</v>
@@ -9702,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9749,7 +9749,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9796,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9843,7 +9843,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9940,7 +9940,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R166">
         <v>41</v>
@@ -9990,7 +9990,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10040,7 +10040,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R168">
         <v>11</v>
@@ -10090,7 +10090,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10137,7 +10137,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10184,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10234,7 +10234,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R172">
         <v>12</v>
@@ -10287,7 +10287,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R173">
         <v>19</v>
@@ -10337,7 +10337,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10384,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10431,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10481,7 +10481,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R177">
         <v>17</v>
@@ -10531,7 +10531,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10578,7 +10578,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10625,7 +10625,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10719,7 +10719,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10766,7 +10766,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10816,7 +10816,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R184">
         <v>16</v>
@@ -10866,7 +10866,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10960,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11007,7 +11007,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11054,7 +11054,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11101,7 +11101,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11198,7 +11198,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11248,7 +11248,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R193">
         <v>28</v>
@@ -11298,7 +11298,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11342,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11389,7 +11389,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11436,7 +11436,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11486,7 +11486,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R198">
         <v>26</v>
@@ -11536,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11583,7 +11583,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11630,7 +11630,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11680,7 +11680,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R202">
         <v>21</v>
@@ -11733,7 +11733,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R203">
         <v>13</v>
@@ -11783,7 +11783,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11833,7 +11833,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R205">
         <v>21</v>
@@ -11883,7 +11883,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11930,7 +11930,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11980,7 +11980,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12027,7 +12027,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12074,7 +12074,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12121,7 +12121,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12168,7 +12168,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12215,7 +12215,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12265,7 +12265,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R214">
         <v>29</v>
@@ -12318,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12365,7 +12365,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12412,7 +12412,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12459,7 +12459,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12506,7 +12506,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12553,7 +12553,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12600,7 +12600,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12650,7 +12650,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R222">
         <v>20</v>
@@ -12703,7 +12703,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12753,7 +12753,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R224">
         <v>20</v>
@@ -12803,7 +12803,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12850,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12897,7 +12897,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12944,7 +12944,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12991,7 +12991,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13041,7 +13041,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R230">
         <v>19</v>
@@ -13088,7 +13088,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13138,7 +13138,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R232">
         <v>21</v>
@@ -13188,7 +13188,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13229,10 +13229,10 @@
         <v>1</v>
       </c>
       <c r="P234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q234">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13279,7 +13279,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13326,7 +13326,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13420,7 +13420,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13467,7 +13467,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13514,7 +13514,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13561,7 +13561,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13608,7 +13608,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13655,7 +13655,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13702,7 +13702,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13743,10 +13743,10 @@
         <v>1</v>
       </c>
       <c r="P245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q245">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13796,7 +13796,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R246">
         <v>8</v>
@@ -13846,7 +13846,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13893,7 +13893,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13943,7 +13943,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -13993,7 +13993,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R250">
         <v>24</v>
@@ -14043,7 +14043,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14093,7 +14093,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R252">
         <v>16</v>
@@ -14146,7 +14146,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14196,7 +14196,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R254">
         <v>16</v>
@@ -14246,7 +14246,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14293,7 +14293,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14340,7 +14340,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14387,7 +14387,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14437,7 +14437,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R259">
         <v>22</v>
@@ -14490,7 +14490,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R260">
         <v>12</v>
@@ -14540,7 +14540,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14587,7 +14587,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14637,7 +14637,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14687,7 +14687,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R264">
         <v>11</v>
@@ -14737,7 +14737,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14784,7 +14784,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14837,7 +14837,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R267">
         <v>4</v>
@@ -14887,7 +14887,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14937,7 +14937,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R269">
         <v>14</v>
@@ -14987,7 +14987,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15037,7 +15037,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R271">
         <v>17</v>
@@ -15090,7 +15090,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15140,7 +15140,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R273">
         <v>9</v>
@@ -15190,7 +15190,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15240,7 +15240,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R275">
         <v>16</v>
@@ -15293,7 +15293,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15343,7 +15343,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R277">
         <v>6</v>
@@ -15393,7 +15393,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15443,7 +15443,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R279">
         <v>5</v>
@@ -15496,7 +15496,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R280">
         <v>20</v>
@@ -15543,7 +15543,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15593,7 +15593,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R282">
         <v>21</v>
@@ -15646,7 +15646,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15693,7 +15693,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15743,7 +15743,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15790,7 +15790,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15840,7 +15840,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15890,7 +15890,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R288">
         <v>29</v>
@@ -15940,7 +15940,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15993,7 +15993,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R290">
         <v>8</v>
@@ -16043,7 +16043,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16090,7 +16090,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R292">
         <v>22</v>
@@ -16140,7 +16140,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16190,7 +16190,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16240,7 +16240,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R295">
         <v>22</v>
@@ -16293,7 +16293,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R296">
         <v>18</v>
@@ -16346,7 +16346,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R297">
         <v>16</v>
@@ -16396,7 +16396,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16443,7 +16443,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16490,7 +16490,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16537,7 +16537,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16587,7 +16587,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R302">
         <v>21</v>
@@ -16640,7 +16640,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16690,7 +16690,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R304">
         <v>13</v>
@@ -16740,7 +16740,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16790,7 +16790,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R306">
         <v>19</v>
@@ -16843,7 +16843,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16893,7 +16893,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R308">
         <v>7</v>
@@ -16943,7 +16943,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16990,7 +16990,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17037,7 +17037,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17084,7 +17084,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17134,7 +17134,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R313">
         <v>17</v>
@@ -17187,7 +17187,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17237,7 +17237,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R315">
         <v>15</v>
@@ -17287,7 +17287,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17331,7 +17331,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17378,7 +17378,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17425,7 +17425,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17475,7 +17475,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R320">
         <v>21</v>
@@ -17525,7 +17525,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17572,7 +17572,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17622,7 +17622,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17672,7 +17672,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R324">
         <v>24</v>
@@ -17725,7 +17725,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R325">
         <v>19</v>
@@ -17775,7 +17775,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17825,7 +17825,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R327">
         <v>13</v>
@@ -17878,7 +17878,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17928,7 +17928,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R329">
         <v>14</v>
@@ -17981,7 +17981,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18031,7 +18031,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R331">
         <v>17</v>
@@ -18081,7 +18081,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18128,7 +18128,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18175,7 +18175,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18222,7 +18222,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18269,7 +18269,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18316,7 +18316,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18363,7 +18363,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18410,7 +18410,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18457,7 +18457,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18504,7 +18504,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18551,7 +18551,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18598,7 +18598,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18648,7 +18648,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R344">
         <v>11</v>
@@ -18701,7 +18701,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R345">
         <v>23</v>
@@ -18751,7 +18751,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18801,7 +18801,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18848,7 +18848,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18895,7 +18895,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18942,7 +18942,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18992,7 +18992,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R351">
         <v>21</v>
@@ -19045,7 +19045,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19092,7 +19092,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19139,7 +19139,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19186,7 +19186,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19233,7 +19233,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19280,7 +19280,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19327,7 +19327,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19377,7 +19377,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R359">
         <v>6</v>
@@ -19421,10 +19421,10 @@
         <v>1</v>
       </c>
       <c r="P360" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q360">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19471,7 +19471,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19518,7 +19518,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19565,7 +19565,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19612,7 +19612,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19659,7 +19659,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19706,7 +19706,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19750,7 +19750,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19800,7 +19800,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="R368">
         <v>-600</v>
@@ -19850,7 +19850,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19891,10 +19891,10 @@
         <v>1</v>
       </c>
       <c r="P370" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q370">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19944,7 +19944,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R371">
         <v>12</v>
@@ -19994,7 +19994,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20044,7 +20044,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R373">
         <v>13</v>
@@ -20097,7 +20097,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20147,7 +20147,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R375">
         <v>19</v>
@@ -20197,7 +20197,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20244,7 +20244,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20291,7 +20291,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20338,7 +20338,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20385,7 +20385,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20435,7 +20435,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R381">
         <v>26</v>
@@ -20488,7 +20488,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20538,7 +20538,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R383">
         <v>10</v>
@@ -20591,7 +20591,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R384">
         <v>3</v>
@@ -20641,7 +20641,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20691,7 +20691,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R386">
         <v>21</v>
@@ -20741,7 +20741,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20791,7 +20791,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R388">
         <v>17</v>
@@ -20844,7 +20844,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20894,7 +20894,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R390">
         <v>20</v>
@@ -20947,7 +20947,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20997,7 +20997,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R392">
         <v>8</v>
@@ -21047,7 +21047,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21097,7 +21097,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R394">
         <v>14</v>
@@ -21147,7 +21147,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21191,7 +21191,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21238,7 +21238,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21285,7 +21285,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21332,7 +21332,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21379,7 +21379,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21429,7 +21429,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R401">
         <v>17</v>
@@ -21479,7 +21479,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21526,7 +21526,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21573,7 +21573,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21620,7 +21620,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R405">
         <v>31</v>
@@ -21673,7 +21673,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R406">
         <v>24</v>
@@ -21723,7 +21723,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21770,7 +21770,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21817,7 +21817,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21864,7 +21864,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21911,7 +21911,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21958,7 +21958,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22005,7 +22005,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22052,7 +22052,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22099,7 +22099,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22149,7 +22149,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R416">
         <v>13</v>
@@ -22202,7 +22202,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R417">
         <v>20</v>
@@ -22252,7 +22252,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22302,7 +22302,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22349,7 +22349,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22396,7 +22396,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22443,7 +22443,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22493,7 +22493,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R423">
         <v>15</v>
@@ -22546,7 +22546,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R424">
         <v>17</v>
@@ -22599,7 +22599,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22649,7 +22649,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R426">
         <v>24</v>
@@ -22702,7 +22702,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22752,7 +22752,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R428">
         <v>11</v>
@@ -22805,7 +22805,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22899,7 +22899,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22946,7 +22946,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22993,7 +22993,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23040,7 +23040,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23090,7 +23090,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R435">
         <v>5</v>
@@ -23143,7 +23143,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23193,7 +23193,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R437">
         <v>17</v>
@@ -23243,7 +23243,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23293,7 +23293,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R439">
         <v>4</v>
@@ -23343,7 +23343,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23437,7 +23437,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R442">
         <v>15</v>
@@ -23490,7 +23490,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23540,7 +23540,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R444">
         <v>19</v>
@@ -23590,7 +23590,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23637,7 +23637,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23684,7 +23684,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23734,7 +23734,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R448">
         <v>16</v>
@@ -23787,7 +23787,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23834,7 +23834,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23881,7 +23881,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23931,7 +23931,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23981,7 +23981,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R453">
         <v>19</v>
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24078,7 +24078,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24128,7 +24128,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R456">
         <v>16</v>
@@ -24181,7 +24181,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R457">
         <v>21</v>
@@ -24231,7 +24231,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24281,7 +24281,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R459">
         <v>16</v>
@@ -24334,7 +24334,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24384,7 +24384,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R461">
         <v>6</v>
@@ -24434,7 +24434,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24484,7 +24484,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R463">
         <v>17</v>
@@ -24534,7 +24534,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24581,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24628,7 +24628,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24678,7 +24678,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R467">
         <v>11</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24778,7 +24778,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24825,7 +24825,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24872,7 +24872,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24969,7 +24969,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R473">
         <v>14</v>
@@ -25019,7 +25019,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25066,7 +25066,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25113,7 +25113,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25160,7 +25160,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25254,7 +25254,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25304,7 +25304,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R480">
         <v>21</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25401,7 +25401,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25448,7 +25448,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25495,7 +25495,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25542,7 +25542,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25589,7 +25589,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25686,7 +25686,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R488">
         <v>6</v>
@@ -25739,7 +25739,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R489">
         <v>17</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25889,7 +25889,7 @@
         <v>1</v>
       </c>
       <c r="Q492">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R492">
         <v>11</v>
@@ -25939,7 +25939,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -25989,7 +25989,7 @@
         <v>1</v>
       </c>
       <c r="Q494">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R494">
         <v>11</v>
@@ -26045,7 +26045,7 @@
         <v>1</v>
       </c>
       <c r="Q495">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R495">
         <v>3</v>
@@ -26089,10 +26089,10 @@
         <v>1</v>
       </c>
       <c r="P496" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q496">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="497" spans="1:17">
@@ -26133,7 +26133,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
